--- a/ocms/target/test-classes/DownloadedFiles/AddressBook.xlsx
+++ b/ocms/target/test-classes/DownloadedFiles/AddressBook.xlsx
@@ -55,10 +55,10 @@
     <t xml:space="preserve">Palak Garg&lt;9917186286&gt;,Amy maitry&lt;459875&gt;,murali ms&lt;56790&gt;,meghna andrews&lt;863356&gt;,mariyam kasheera&lt;4567890&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Address Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radhika g&lt;456789&gt;,Fax Address Recipient&lt;9987288&gt;</t>
+    <t xml:space="preserve">Address Book Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radhika g&lt;456789&gt;</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>43630.47258101852</v>
+        <v>43630.7033912037</v>
       </c>
     </row>
   </sheetData>
